--- a/biology/Virologie/Alphaflexiviridae/Alphaflexiviridae.xlsx
+++ b/biology/Virologie/Alphaflexiviridae/Alphaflexiviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alphaflexiviridae sont une famille de virus de l'ordre des Tymovirales, qui compte sept genres et 56 espèces. Ce sont des virus à ARN simple brin à polarité positive (ssRNA), rattachés au groupe IV de la classification Baltimore. Cette famille résulte de la scission en quatre parties (Alpha-, Beta-, Delta- et Gammaflexiviridae)  de l'ancienne famille des Flexiviridae.
 Les virions sont des particules filamenteuses d'environ 800 nm de long. De nombreuses espèces d'Alphaflexiviridae n'ont pas de vecteurs biologiques connus.
@@ -513,9 +525,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 janvier 2021)[2], la famille des Alphaflexiviridae comprend les genres suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 janvier 2021), la famille des Alphaflexiviridae comprend les genres suivants :
 Allexivirus (12 espèces)
 Botrexvirus (1 espèce)
 Lolavirus (1 espèce)
